--- a/public/bieumau/phieuthanhly.xlsx
+++ b/public/bieumau/phieuthanhly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025\storage\app\private\bieumau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EB5156-F6BA-4329-A8F2-D7A22D51348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F3439-03E9-40B4-9DB3-0AB2E1A0E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11832" yWindow="348" windowWidth="11208" windowHeight="11652" xr2:uid="{3CD8926F-1000-4F76-A1CA-5232C907C927}"/>
+    <workbookView xWindow="11784" yWindow="444" windowWidth="11208" windowHeight="11652" xr2:uid="{3CD8926F-1000-4F76-A1CA-5232C907C927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -566,34 +566,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,25 +616,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>478118</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>410882</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>474617</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>136311</xdr:rowOff>
+      <xdr:rowOff>107982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
+        <xdr:cNvPr id="6" name="Picture 5" descr="LG이노텍">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFC0568-F56A-402F-BD6B-B2C78EB65E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A755FCE-A736-45D4-84E0-B6462C5D4737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -650,90 +650,6 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1697318" y="309880"/>
-          <a:ext cx="1151964" cy="557951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>283882</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>544232</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>102346</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A46BE4F-0542-464C-A0C6-2C84C473CF84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -741,153 +657,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5770282" y="5576046"/>
-          <a:ext cx="1479550" cy="744220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>478118</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>410882</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>136311</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E2D3CD-CD23-49EE-B318-FE024DC0B019}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1697318" y="309880"/>
-          <a:ext cx="1151964" cy="557951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>283882</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>544232</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>102346</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2376B0-7DEE-4DD8-8FFB-D5396D0FD53A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5770282" y="5576046"/>
-          <a:ext cx="1479550" cy="744220"/>
+          <a:off x="1325880" y="38100"/>
+          <a:ext cx="1556657" cy="786162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9488B0FF-AB14-48C8-9FA0-9ADEDDE65080}">
   <dimension ref="C3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,48 +1014,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
@@ -1307,28 +1078,28 @@
       <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="13"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1354,14 +1125,14 @@
       <c r="I12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="10"/>
@@ -1371,46 +1142,46 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="16" spans="3:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="7:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.3">
       <c r="I19" s="3"/>
@@ -1418,12 +1189,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F5:J5"/>
@@ -1431,12 +1202,12 @@
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/bieumau/phieuthanhly.xlsx
+++ b/public/bieumau/phieuthanhly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\tttn-2025\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F3439-03E9-40B4-9DB3-0AB2E1A0E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA012F-EC90-4E87-8192-245336E1195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11784" yWindow="444" windowWidth="11208" windowHeight="11652" xr2:uid="{3CD8926F-1000-4F76-A1CA-5232C907C927}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CD8926F-1000-4F76-A1CA-5232C907C927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -566,6 +566,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,21 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,7 +1000,7 @@
   <dimension ref="C3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:J6"/>
+      <selection activeCell="E9" sqref="E9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,48 +1014,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="3:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
@@ -1078,28 +1078,28 @@
       <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="13"/>
+      <c r="M10" s="18"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1125,14 +1125,14 @@
       <c r="I12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="10"/>
@@ -1142,46 +1142,46 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="16" spans="3:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="7:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.3">
       <c r="I19" s="3"/>
@@ -1189,12 +1189,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F5:J5"/>
@@ -1202,12 +1202,12 @@
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
